--- a/data/trans_media/IQ28_T-Edad-trans_media.xlsx
+++ b/data/trans_media/IQ28_T-Edad-trans_media.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +567,42 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2015</t>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -611,22 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>99,4</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>86,08</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>85,93</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>109,36</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>87,28</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>87,54</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>105,3</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>85,08; 91,53</t>
+          <t>85,11; 91,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86,8; 93,1</t>
+          <t>86,82; 93,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>83,23; 88,83</t>
+          <t>90,66; 110,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>82,64; 88,6</t>
+          <t>83,11; 88,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>85,01; 89,38</t>
+          <t>82,88; 88,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,69; 89,82</t>
+          <t>98,44; 120,88</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>84,87; 89,24</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>85,52; 89,7</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>98,18; 113,17</t>
         </is>
       </c>
     </row>
@@ -691,22 +752,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>119,4</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>110,81</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>112,42</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>115,18</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>110,49</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>112,21</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>117,59</t>
         </is>
       </c>
     </row>
@@ -719,32 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>108,87; 111,47</t>
+          <t>108,97; 111,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>110,74; 113,48</t>
+          <t>110,77; 113,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>109,56; 112,33</t>
+          <t>115,75; 123,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>110,94; 113,96</t>
+          <t>109,29; 112,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>109,6; 111,47</t>
+          <t>110,98; 113,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>111,06; 113,21</t>
+          <t>110,18; 119,3</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>109,61; 111,47</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>111,16; 113,24</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>114,66; 120,41</t>
         </is>
       </c>
     </row>
@@ -771,22 +862,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>142,15</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>137,18</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>138,94</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>137,05</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>136,89</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>139,01</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>139,91</t>
         </is>
       </c>
     </row>
@@ -799,32 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>135,03; 138,21</t>
+          <t>135,09; 138,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>137,97; 140,32</t>
+          <t>137,87; 140,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>135,49; 138,89</t>
+          <t>138,65; 145,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>137,7; 140,2</t>
+          <t>135,57; 139,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>135,66; 138,0</t>
+          <t>137,78; 140,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>138,15; 139,87</t>
+          <t>132,41; 141,54</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>135,77; 138,01</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>138,09; 139,9</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>137,27; 142,75</t>
         </is>
       </c>
     </row>
@@ -851,22 +972,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>155,43</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>156,89</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>157,61</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>153,23</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>159,61</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>160,07</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>154,42</t>
         </is>
       </c>
     </row>
@@ -879,32 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>160,63; 163,68</t>
+          <t>160,59; 163,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>160,83; 163,86</t>
+          <t>160,86; 163,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>155,58; 158,21</t>
+          <t>151,92; 158,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>156,28; 158,82</t>
+          <t>155,47; 158,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>158,48; 160,62</t>
+          <t>156,33; 158,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>159,09; 161,04</t>
+          <t>150,41; 156,02</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>158,56; 160,63</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>159,1; 161,16</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>152,1; 156,35</t>
         </is>
       </c>
     </row>
@@ -931,22 +1082,37 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>140,48</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>129,2</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>132,08</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>137,38</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>129,73</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>132,11</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>139,08</t>
         </is>
       </c>
     </row>
@@ -959,32 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>128,61; 132,16</t>
+          <t>128,57; 131,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>130,46; 133,82</t>
+          <t>130,39; 133,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>127,34; 130,81</t>
+          <t>138,12; 143,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>130,53; 133,73</t>
+          <t>127,61; 130,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>128,6; 130,98</t>
+          <t>130,42; 133,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>130,79; 133,21</t>
+          <t>134,52; 140,51</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>128,48; 130,95</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>131,01; 133,34</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>137,35; 141,1</t>
         </is>
       </c>
     </row>
@@ -997,12 +1178,12 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
